--- a/Data/DataSet/B-SmallAttempt.xlsx
+++ b/Data/DataSet/B-SmallAttempt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coverage\Data\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC05F1-5CCA-47B2-A3ED-5EFF41653640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27948" windowHeight="12252"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="1580">
   <si>
     <t>shortdescription</t>
   </si>
@@ -4771,12 +4770,15 @@
   </si>
   <si>
     <t>(a)(b)(a)*(b)*(aaa+)</t>
+  </si>
+  <si>
+    <t>No or loop 1 or 01, and end by 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5084,14 +5086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6172,6 +6174,9 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1579</v>
+      </c>
       <c r="B99" t="s">
         <v>134</v>
       </c>
@@ -22038,12 +22043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22052,12 +22057,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
